--- a/results/mp/logistic/corona/confidence/168/masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,66 +40,66 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>warning</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -112,27 +112,24 @@
     <t>oil</t>
   </si>
   <si>
-    <t>prices</t>
+    <t>co</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -142,94 +139,97 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>special</t>
+    <t>safe</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>like</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>like</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
@@ -241,31 +241,28 @@
     <t>important</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
-    <t>are</t>
+    <t>your</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
   <si>
     <t>corona</t>
@@ -634,10 +631,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,13 +692,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -713,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -745,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8013698630136986</v>
+        <v>0.7945205479452054</v>
       </c>
       <c r="C4">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D4">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -787,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -795,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -837,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -845,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7586206896551724</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -887,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -895,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.76</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -937,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -945,38 +942,38 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8">
+        <v>0.8484848484848485</v>
+      </c>
+      <c r="L8">
         <v>28</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>28</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8">
-        <v>0.8350785340314136</v>
-      </c>
-      <c r="L8">
-        <v>319</v>
-      </c>
-      <c r="M8">
-        <v>320</v>
-      </c>
       <c r="N8">
         <v>1</v>
       </c>
@@ -984,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -995,13 +992,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1013,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.835509138381201</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1037,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1045,13 +1042,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.559322033898305</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1063,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.8113207547169812</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1087,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1095,13 +1092,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5490196078431373</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1113,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1137,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1145,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5271317829457365</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C12">
-        <v>272</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>272</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1163,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.796875</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1187,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.525</v>
+        <v>0.575</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1213,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5238095238095238</v>
+        <v>0.5562015503875969</v>
       </c>
       <c r="C14">
-        <v>99</v>
+        <v>287</v>
       </c>
       <c r="D14">
-        <v>99</v>
+        <v>287</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1263,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.7926829268292683</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1287,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1295,13 +1292,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5128205128205128</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1313,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15">
         <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1345,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4832214765100671</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C16">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1363,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1387,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1392,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.44</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.76875</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L17">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1437,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1445,13 +1442,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4181818181818182</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1463,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.7659574468085106</v>
+        <v>0.7625</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1487,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1495,13 +1492,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4107142857142857</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,19 +1510,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.7605633802816901</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L19">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1537,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1545,13 +1542,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3916666666666667</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="C20">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D20">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1563,19 +1560,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1595,13 +1592,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3636363636363636</v>
+        <v>0.4</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1613,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1637,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1645,13 +1642,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2857142857142857</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1663,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.7209302325581395</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1687,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1695,13 +1692,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2777777777777778</v>
+        <v>0.3</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1713,19 +1710,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K23">
         <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1737,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1745,13 +1742,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.253968253968254</v>
+        <v>0.25</v>
       </c>
       <c r="C24">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1763,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.7037037037037037</v>
+        <v>0.6875</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1787,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1816,16 +1813,16 @@
         <v>309</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.6857142857142857</v>
+        <v>0.675</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1837,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1845,13 +1842,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.08</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1863,19 +1860,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.6785714285714286</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1887,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1895,37 +1892,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01808785529715762</v>
+        <v>0.01679586563307494</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>1140</v>
+        <v>3044</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>0.6666666666666666</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1937,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1945,37 +1942,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01602023608768971</v>
+        <v>0.01312447078746825</v>
       </c>
       <c r="C28">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D28">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E28">
-        <v>0.16</v>
+        <v>0.35</v>
       </c>
       <c r="F28">
-        <v>0.84</v>
+        <v>0.65</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.6617647058823529</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L28">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1987,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1995,37 +1992,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0145255003227889</v>
+        <v>0.01123069723912026</v>
       </c>
       <c r="C29">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E29">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="F29">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>3053</v>
+        <v>2113</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K29">
-        <v>0.6153846153846154</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M29">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2037,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2045,49 +2042,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01029962546816479</v>
+        <v>0.007213881848313512</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D30">
+        <v>73</v>
+      </c>
+      <c r="E30">
+        <v>0.49</v>
+      </c>
+      <c r="F30">
+        <v>0.51</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>5092</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="L30">
+        <v>41</v>
+      </c>
+      <c r="M30">
+        <v>41</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>29</v>
-      </c>
-      <c r="E30">
-        <v>0.24</v>
-      </c>
-      <c r="F30">
-        <v>0.76</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>2114</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K30">
-        <v>0.5957446808510638</v>
-      </c>
-      <c r="L30">
-        <v>56</v>
-      </c>
-      <c r="M30">
-        <v>56</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2095,37 +2092,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.007450523864959255</v>
+        <v>0.006657252370385313</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E31">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="F31">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>4263</v>
+        <v>4924</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K31">
-        <v>0.5898305084745763</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L31">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2137,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>121</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2145,477 +2142,453 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.00726832222895215</v>
+        <v>0.006510113926993723</v>
       </c>
       <c r="C32">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D32">
+        <v>55</v>
+      </c>
+      <c r="E32">
+        <v>0.49</v>
+      </c>
+      <c r="F32">
+        <v>0.51</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>4273</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32">
+        <v>0.5815899581589958</v>
+      </c>
+      <c r="L32">
+        <v>139</v>
+      </c>
+      <c r="M32">
+        <v>139</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33">
+        <v>0.58</v>
+      </c>
+      <c r="L33">
+        <v>29</v>
+      </c>
+      <c r="M33">
+        <v>29</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34">
+        <v>0.5782312925170068</v>
+      </c>
+      <c r="L34">
+        <v>170</v>
+      </c>
+      <c r="M34">
+        <v>171</v>
+      </c>
+      <c r="N34">
+        <v>0.99</v>
+      </c>
+      <c r="O34">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K35">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="L35">
+        <v>22</v>
+      </c>
+      <c r="M35">
+        <v>22</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K36">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="L36">
+        <v>46</v>
+      </c>
+      <c r="M36">
+        <v>46</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37">
+        <v>0.5098039215686274</v>
+      </c>
+      <c r="L37">
+        <v>26</v>
+      </c>
+      <c r="M37">
+        <v>26</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="L38">
+        <v>22</v>
+      </c>
+      <c r="M38">
+        <v>22</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K39">
+        <v>0.359375</v>
+      </c>
+      <c r="L39">
+        <v>23</v>
+      </c>
+      <c r="M39">
+        <v>23</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K40">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L40">
+        <v>26</v>
+      </c>
+      <c r="M40">
+        <v>26</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41">
+        <v>0.273972602739726</v>
+      </c>
+      <c r="L41">
+        <v>20</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K42">
+        <v>0.04013377926421405</v>
+      </c>
+      <c r="L42">
+        <v>48</v>
+      </c>
+      <c r="M42">
+        <v>52</v>
+      </c>
+      <c r="N42">
+        <v>0.92</v>
+      </c>
+      <c r="O42">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E32">
-        <v>0.54</v>
-      </c>
-      <c r="F32">
-        <v>0.46</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>4917</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32">
-        <v>0.5774058577405857</v>
-      </c>
-      <c r="L32">
-        <v>138</v>
-      </c>
-      <c r="M32">
-        <v>138</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.006431494835314753</v>
-      </c>
-      <c r="C33">
-        <v>33</v>
-      </c>
-      <c r="D33">
-        <v>67</v>
-      </c>
-      <c r="E33">
-        <v>0.51</v>
-      </c>
-      <c r="F33">
-        <v>0.49</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>5098</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L33">
-        <v>40</v>
-      </c>
-      <c r="M33">
-        <v>40</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="J34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L34">
-        <v>28</v>
-      </c>
-      <c r="M34">
-        <v>28</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35">
-        <v>0.5056179775280899</v>
-      </c>
-      <c r="L35">
-        <v>45</v>
-      </c>
-      <c r="M35">
-        <v>45</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36">
-        <v>0.4901960784313725</v>
-      </c>
-      <c r="L36">
+      <c r="K43">
+        <v>0.03473491773308958</v>
+      </c>
+      <c r="L43">
+        <v>19</v>
+      </c>
+      <c r="M43">
+        <v>19</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K44">
+        <v>0.01540195341848234</v>
+      </c>
+      <c r="L44">
+        <v>41</v>
+      </c>
+      <c r="M44">
+        <v>52</v>
+      </c>
+      <c r="N44">
+        <v>0.79</v>
+      </c>
+      <c r="O44">
+        <v>0.21</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K45">
+        <v>0.01028383381324558</v>
+      </c>
+      <c r="L45">
         <v>25</v>
       </c>
-      <c r="M36">
-        <v>25</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K37">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="L37">
-        <v>21</v>
-      </c>
-      <c r="M37">
-        <v>21</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K38">
-        <v>0.3835616438356164</v>
-      </c>
-      <c r="L38">
-        <v>28</v>
-      </c>
-      <c r="M38">
-        <v>28</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K39">
-        <v>0.3389830508474576</v>
-      </c>
-      <c r="L39">
-        <v>20</v>
-      </c>
-      <c r="M39">
-        <v>20</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
+      <c r="M45">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K40">
-        <v>0.2948717948717949</v>
-      </c>
-      <c r="L40">
-        <v>23</v>
-      </c>
-      <c r="M40">
-        <v>23</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K41">
-        <v>0.0342237061769616</v>
-      </c>
-      <c r="L41">
-        <v>41</v>
-      </c>
-      <c r="M41">
-        <v>43</v>
-      </c>
-      <c r="N41">
-        <v>0.95</v>
-      </c>
-      <c r="O41">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K42">
-        <v>0.01641907740422205</v>
-      </c>
-      <c r="L42">
-        <v>21</v>
-      </c>
-      <c r="M42">
-        <v>31</v>
-      </c>
-      <c r="N42">
-        <v>0.68</v>
-      </c>
-      <c r="O42">
-        <v>0.32</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43">
-        <v>0.01540195341848234</v>
-      </c>
-      <c r="L43">
-        <v>41</v>
-      </c>
-      <c r="M43">
-        <v>52</v>
-      </c>
-      <c r="N43">
-        <v>0.79</v>
-      </c>
-      <c r="O43">
-        <v>0.21</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K44">
-        <v>0.01338912133891213</v>
-      </c>
-      <c r="L44">
-        <v>32</v>
-      </c>
-      <c r="M44">
-        <v>36</v>
-      </c>
-      <c r="N44">
-        <v>0.89</v>
-      </c>
-      <c r="O44">
-        <v>0.11</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
+      <c r="N45">
+        <v>0.64</v>
+      </c>
+      <c r="O45">
+        <v>0.36</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K45">
-        <v>0.01324085750315259</v>
-      </c>
-      <c r="L45">
-        <v>21</v>
-      </c>
-      <c r="M45">
-        <v>29</v>
-      </c>
-      <c r="N45">
-        <v>0.72</v>
-      </c>
-      <c r="O45">
-        <v>0.28</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="K46">
-        <v>0.009465020576131687</v>
+        <v>0.009623430962343096</v>
       </c>
       <c r="L46">
         <v>23</v>
       </c>
       <c r="M46">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N46">
-        <v>0.61</v>
+        <v>0.85</v>
       </c>
       <c r="O46">
-        <v>0.39</v>
+        <v>0.15</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>2407</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K47">
-        <v>0.008796732642161484</v>
+        <v>0.009416195856873822</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N47">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="O47">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>3155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K48">
-        <v>0.008669354838709677</v>
+        <v>0.007858150312311102</v>
       </c>
       <c r="L48">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M48">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="N48">
         <v>0.54</v>
@@ -2627,59 +2600,59 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>4917</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49">
+        <v>0.00702028081123245</v>
+      </c>
+      <c r="L49">
         <v>36</v>
       </c>
-      <c r="K49">
-        <v>0.007681564245810056</v>
-      </c>
-      <c r="L49">
-        <v>33</v>
-      </c>
       <c r="M49">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="N49">
+        <v>0.49</v>
+      </c>
+      <c r="O49">
         <v>0.51</v>
       </c>
-      <c r="O49">
-        <v>0.49</v>
-      </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>4263</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K50">
-        <v>0.006625097427903352</v>
+        <v>0.006279069767441861</v>
       </c>
       <c r="L50">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M50">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="N50">
+        <v>0.49</v>
+      </c>
+      <c r="O50">
         <v>0.51</v>
       </c>
-      <c r="O50">
-        <v>0.49</v>
-      </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>5098</v>
+        <v>4273</v>
       </c>
     </row>
   </sheetData>
